--- a/Format Import Tusbung - bintuni.xlsx
+++ b/Format Import Tusbung - bintuni.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT APPS\billman advance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\billmanplnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1576347D-D2E4-4FEA-97D4-9FA3634EF3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72306B1-1E6B-4EEE-B7CD-65D6F2EFA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AFDB4832-0DB3-4261-BED5-0029AE39DDBF}"/>
   </bookViews>
@@ -7869,7 +7869,7 @@
   <dimension ref="A1:P450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N226" sqref="N226"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28378,7 +28378,7 @@
         <v>791</v>
       </c>
       <c r="H450" s="3" t="str">
-        <f t="shared" ref="H450:H513" si="14">MID(G450,4,3)</f>
+        <f t="shared" ref="H450" si="14">MID(G450,4,3)</f>
         <v>AAR</v>
       </c>
       <c r="I450" s="3"/>
